--- a/ChinaBang2015/ChinaBang2015-vote/ChinaBang2015-vote顺序.xlsx
+++ b/ChinaBang2015/ChinaBang2015-vote/ChinaBang2015-vote顺序.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harryzhu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harryzhu/BaiduPan/Github/Blog/ChinaBang2015/ChinaBang2015-vote/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,9 +29,6 @@
     <t>年度创业公司</t>
   </si>
   <si>
-    <t>B站</t>
-  </si>
-  <si>
     <t>创客星球</t>
   </si>
   <si>
@@ -113,319 +110,325 @@
     <t>小K插座</t>
   </si>
   <si>
+    <t>年度海外市场开拓公司</t>
+  </si>
+  <si>
+    <t>小米科技</t>
+  </si>
+  <si>
+    <t>OnePlus</t>
+  </si>
+  <si>
+    <t>猎豹移动</t>
+  </si>
+  <si>
+    <t>AppAnnie</t>
+  </si>
+  <si>
+    <t>uArm</t>
+  </si>
+  <si>
+    <t>触宝</t>
+  </si>
+  <si>
+    <t>Sensoro</t>
+  </si>
+  <si>
+    <t>APUS桌面</t>
+  </si>
+  <si>
+    <t>Camera360</t>
+  </si>
+  <si>
+    <t>Mailtime</t>
+  </si>
+  <si>
+    <t>名片全能王</t>
+  </si>
+  <si>
+    <t>年度最佳营销公司</t>
+  </si>
+  <si>
+    <t>锤子科技</t>
+  </si>
+  <si>
+    <t>UCloud</t>
+  </si>
+  <si>
+    <t>七牛</t>
+  </si>
+  <si>
+    <t>AA租车</t>
+  </si>
+  <si>
+    <t>个推</t>
+  </si>
+  <si>
+    <t>有妖气</t>
+  </si>
+  <si>
+    <t>暴走漫画</t>
+  </si>
+  <si>
+    <t>快看漫画</t>
+  </si>
+  <si>
+    <t>宝驾租车</t>
+  </si>
+  <si>
+    <t>懒投资</t>
+  </si>
+  <si>
+    <t>华云</t>
+  </si>
+  <si>
+    <t>三分微视</t>
+  </si>
+  <si>
+    <t>加意新品</t>
+  </si>
+  <si>
+    <t>名校贷</t>
+  </si>
+  <si>
+    <t>年度云服务/企业级应用初创公司</t>
+  </si>
+  <si>
+    <t>TeamBition</t>
+  </si>
+  <si>
+    <t>LeanCloud</t>
+  </si>
+  <si>
+    <t>又拍云</t>
+  </si>
+  <si>
+    <t>青云</t>
+  </si>
+  <si>
+    <t>哪上班</t>
+  </si>
+  <si>
+    <t>talkingdata</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>梆梆安全</t>
+  </si>
+  <si>
+    <t>容联云通讯</t>
+  </si>
+  <si>
+    <t>普强信息</t>
+  </si>
+  <si>
+    <t>兑吧</t>
+  </si>
+  <si>
+    <t>fir.im</t>
+  </si>
+  <si>
+    <t>亲加通讯云</t>
+  </si>
+  <si>
+    <t>环信</t>
+  </si>
+  <si>
+    <t>房管通</t>
+  </si>
+  <si>
+    <t>云知声</t>
+  </si>
+  <si>
+    <t>微盟</t>
+  </si>
+  <si>
+    <t>Testin</t>
+  </si>
+  <si>
+    <t>爱心推</t>
+  </si>
+  <si>
+    <t>年度最受女性欢迎产品及服务</t>
+  </si>
+  <si>
+    <t>优美图</t>
+  </si>
+  <si>
+    <t>Roseonly</t>
+  </si>
+  <si>
+    <t>河狸家</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>新氧</t>
+  </si>
+  <si>
+    <t>美拍</t>
+  </si>
+  <si>
+    <t>蜜淘</t>
+  </si>
+  <si>
+    <t>美妆心得</t>
+  </si>
+  <si>
+    <t>美啦</t>
+  </si>
+  <si>
+    <t>蜜芽宝贝</t>
+  </si>
+  <si>
+    <t>美到家</t>
+  </si>
+  <si>
+    <t>洋码头</t>
+  </si>
+  <si>
+    <t>年度医疗及健康产品及服务</t>
+  </si>
+  <si>
+    <t>乐动力</t>
+  </si>
+  <si>
+    <t>fineck</t>
+  </si>
+  <si>
+    <t>青橙科技</t>
+  </si>
+  <si>
+    <t>糖护士</t>
+  </si>
+  <si>
+    <t>云豆科技</t>
+  </si>
+  <si>
+    <t>功夫熊</t>
+  </si>
+  <si>
+    <t>快乐妈咪</t>
+  </si>
+  <si>
+    <t>掌上心电</t>
+  </si>
+  <si>
+    <t>麦开智能水杯</t>
+  </si>
+  <si>
+    <t>年度教育类产品及服务</t>
+  </si>
+  <si>
+    <t>极客学院</t>
+  </si>
+  <si>
+    <t>VipKid</t>
+  </si>
+  <si>
+    <t>盒子鱼</t>
+  </si>
+  <si>
+    <t>百词斩</t>
+  </si>
+  <si>
+    <t>自化创意</t>
+  </si>
+  <si>
+    <t>鲨鱼公园</t>
+  </si>
+  <si>
+    <t>一起作业</t>
+  </si>
+  <si>
+    <t>好未来</t>
+  </si>
+  <si>
+    <t>猿题库</t>
+  </si>
+  <si>
+    <t>果壳MOOC学院</t>
+  </si>
+  <si>
+    <t>51Talk</t>
+  </si>
+  <si>
+    <t>年度最佳设计（硬件）</t>
+  </si>
+  <si>
+    <t>魅族</t>
+  </si>
+  <si>
+    <t>GEEK智能吉他</t>
+  </si>
+  <si>
+    <t>那刻智能镜</t>
+  </si>
+  <si>
+    <t>空气果</t>
+  </si>
+  <si>
+    <t>光年</t>
+  </si>
+  <si>
+    <t>幻腾</t>
+  </si>
+  <si>
+    <t>亿觅音箱Solo</t>
+  </si>
+  <si>
+    <t>维灵</t>
+  </si>
+  <si>
+    <t>基本概念</t>
+  </si>
+  <si>
+    <t>年度最佳设计（软件）</t>
+  </si>
+  <si>
+    <t>最美创意</t>
+  </si>
+  <si>
+    <t>一问</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>vvebo</t>
+  </si>
+  <si>
+    <t>MIX滤镜大师</t>
+  </si>
+  <si>
+    <t>简书</t>
+  </si>
+  <si>
+    <t>初页</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>榫卯</t>
+  </si>
+  <si>
+    <t>锤子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bilibili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>语境道客WEME（车载硬件）</t>
-  </si>
-  <si>
-    <t>年度海外市场开拓公司</t>
-  </si>
-  <si>
-    <t>小米科技</t>
-  </si>
-  <si>
-    <t>OnePlus</t>
-  </si>
-  <si>
-    <t>猎豹移动</t>
-  </si>
-  <si>
-    <t>AppAnnie</t>
-  </si>
-  <si>
-    <t>uArm</t>
-  </si>
-  <si>
-    <t>触宝</t>
-  </si>
-  <si>
-    <t>Sensoro</t>
-  </si>
-  <si>
-    <t>Solo桌面</t>
-  </si>
-  <si>
-    <t>APUS桌面</t>
-  </si>
-  <si>
-    <t>Camera360</t>
-  </si>
-  <si>
-    <t>Mailtime</t>
-  </si>
-  <si>
-    <t>名片全能王</t>
-  </si>
-  <si>
-    <t>年度最佳营销公司</t>
-  </si>
-  <si>
-    <t>锤子科技</t>
-  </si>
-  <si>
-    <t>UCloud</t>
-  </si>
-  <si>
-    <t>七牛</t>
-  </si>
-  <si>
-    <t>AA租车</t>
-  </si>
-  <si>
-    <t>个推</t>
-  </si>
-  <si>
-    <t>有妖气</t>
-  </si>
-  <si>
-    <t>暴走漫画</t>
-  </si>
-  <si>
-    <t>快看漫画</t>
-  </si>
-  <si>
-    <t>宝驾租车</t>
-  </si>
-  <si>
-    <t>懒投资</t>
-  </si>
-  <si>
-    <t>华云</t>
-  </si>
-  <si>
-    <t>三分微视</t>
-  </si>
-  <si>
-    <t>加意新品</t>
-  </si>
-  <si>
-    <t>名校贷</t>
-  </si>
-  <si>
-    <t>年度云服务/企业级应用初创公司</t>
-  </si>
-  <si>
-    <t>TeamBition</t>
-  </si>
-  <si>
-    <t>LeanCloud</t>
-  </si>
-  <si>
-    <t>又拍云</t>
-  </si>
-  <si>
-    <t>青云</t>
-  </si>
-  <si>
-    <t>哪上班</t>
-  </si>
-  <si>
-    <t>talkingdata</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>梆梆安全</t>
-  </si>
-  <si>
-    <t>容联云通讯</t>
-  </si>
-  <si>
-    <t>普强信息</t>
-  </si>
-  <si>
-    <t>兑吧</t>
-  </si>
-  <si>
-    <t>fir.im</t>
-  </si>
-  <si>
-    <t>亲加通讯云</t>
-  </si>
-  <si>
-    <t>环信</t>
-  </si>
-  <si>
-    <t>房管通</t>
-  </si>
-  <si>
-    <t>云知声</t>
-  </si>
-  <si>
-    <t>微盟</t>
-  </si>
-  <si>
-    <t>Testin</t>
-  </si>
-  <si>
-    <t>爱心推</t>
-  </si>
-  <si>
-    <t>年度最受女性欢迎产品及服务</t>
-  </si>
-  <si>
-    <t>优美图</t>
-  </si>
-  <si>
-    <t>Roseonly</t>
-  </si>
-  <si>
-    <t>河狸家</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>新氧</t>
-  </si>
-  <si>
-    <t>美拍</t>
-  </si>
-  <si>
-    <t>蜜淘</t>
-  </si>
-  <si>
-    <t>美妆心得</t>
-  </si>
-  <si>
-    <t>美啦</t>
-  </si>
-  <si>
-    <t>蜜芽宝贝</t>
-  </si>
-  <si>
-    <t>美到家</t>
-  </si>
-  <si>
-    <t>洋码头</t>
-  </si>
-  <si>
-    <t>年度医疗及健康产品及服务</t>
-  </si>
-  <si>
-    <t>乐动力</t>
-  </si>
-  <si>
-    <t>fineck</t>
-  </si>
-  <si>
-    <t>青橙科技</t>
-  </si>
-  <si>
-    <t>糖护士</t>
-  </si>
-  <si>
-    <t>云豆科技</t>
-  </si>
-  <si>
-    <t>功夫熊</t>
-  </si>
-  <si>
-    <t>快乐妈咪</t>
-  </si>
-  <si>
-    <t>掌上心电</t>
-  </si>
-  <si>
-    <t>麦开智能水杯</t>
-  </si>
-  <si>
-    <t>年度教育类产品及服务</t>
-  </si>
-  <si>
-    <t>极客学院</t>
-  </si>
-  <si>
-    <t>VipKid</t>
-  </si>
-  <si>
-    <t>盒子鱼</t>
-  </si>
-  <si>
-    <t>百词斩</t>
-  </si>
-  <si>
-    <t>自化创意</t>
-  </si>
-  <si>
-    <t>鲨鱼公园</t>
-  </si>
-  <si>
-    <t>一起作业</t>
-  </si>
-  <si>
-    <t>好未来</t>
-  </si>
-  <si>
-    <t>猿题库</t>
-  </si>
-  <si>
-    <t>果壳MOOC学院</t>
-  </si>
-  <si>
-    <t>51Talk</t>
-  </si>
-  <si>
-    <t>年度最佳设计（硬件）</t>
-  </si>
-  <si>
-    <t>魅族</t>
-  </si>
-  <si>
-    <t>GEEK智能吉他</t>
-  </si>
-  <si>
-    <t>那刻智能镜</t>
-  </si>
-  <si>
-    <t>空气果</t>
-  </si>
-  <si>
-    <t>光年</t>
-  </si>
-  <si>
-    <t>幻腾</t>
-  </si>
-  <si>
-    <t>亿觅音箱Solo</t>
-  </si>
-  <si>
-    <t>维灵</t>
-  </si>
-  <si>
-    <t>基本概念</t>
-  </si>
-  <si>
-    <t>年度最佳设计（软件）</t>
-  </si>
-  <si>
-    <t>最美创意</t>
-  </si>
-  <si>
-    <t>一问</t>
-  </si>
-  <si>
-    <t>Mono</t>
-  </si>
-  <si>
-    <t>vvebo</t>
-  </si>
-  <si>
-    <t>MIX滤镜大师</t>
-  </si>
-  <si>
-    <t>简书</t>
-  </si>
-  <si>
-    <t>初页</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>榫卯</t>
-  </si>
-  <si>
-    <t>锤子科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -903,22 +906,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -926,37 +929,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -964,37 +967,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1">
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R4" s="1">
         <v>2</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -1002,37 +1005,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1">
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R5" s="1">
         <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -1040,37 +1043,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1">
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R6" s="1">
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -1078,37 +1081,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1">
         <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R7" s="1">
         <v>5</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -1116,37 +1119,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
         <v>6</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N8" s="1">
         <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R8" s="1">
         <v>6</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1154,37 +1157,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1">
         <v>7</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N9" s="1">
         <v>7</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="1">
         <v>7</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1192,37 +1195,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" s="1">
         <v>8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N10" s="1">
         <v>8</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R10" s="1">
         <v>8</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -1230,37 +1233,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="K11" s="1">
         <v>9</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N11" s="1">
         <v>9</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R11" s="1">
         <v>9</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -1268,37 +1271,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N12" s="1">
         <v>10</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R12" s="1">
         <v>10</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -1306,31 +1309,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K13" s="1">
         <v>11</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N13" s="1">
         <v>11</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R13" s="1">
         <v>11</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -1338,31 +1341,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N14" s="1">
         <v>12</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R14" s="1">
         <v>12</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -1370,25 +1373,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15" s="1">
         <v>13</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N15" s="1">
         <v>13</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -1396,19 +1399,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1">
         <v>14</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1">
         <v>14</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
@@ -1416,13 +1419,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N17" s="1">
         <v>15</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
@@ -1430,13 +1433,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="1">
         <v>16</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
@@ -1444,13 +1447,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" s="1">
         <v>17</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
@@ -1458,13 +1461,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="1">
         <v>18</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
@@ -1472,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
@@ -1480,24 +1483,24 @@
         <v>20</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
@@ -1505,25 +1508,25 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -1531,25 +1534,25 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -1557,25 +1560,25 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J28" s="1">
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -1583,25 +1586,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J29" s="1">
         <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
@@ -1609,25 +1612,25 @@
         <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J30" s="1">
         <v>5</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
@@ -1635,25 +1638,25 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1">
         <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J31" s="1">
         <v>6</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -1661,25 +1664,25 @@
         <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G32" s="1">
         <v>7</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J32" s="1">
         <v>7</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1687,25 +1690,25 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="1">
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G33" s="1">
         <v>8</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J33" s="1">
         <v>8</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1713,25 +1716,25 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G34" s="1">
         <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J34" s="1">
         <v>9</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1739,13 +1742,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G35" s="1">
         <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1753,13 +1756,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G36" s="1">
         <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
